--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\456\ProjectNewV2\Workplace\AutoNewFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\456\ProjectNewV2\Workplace\AutoNewProfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Template" sheetId="5" r:id="rId1"/>
-    <sheet name="AutoData-Template" sheetId="4" r:id="rId2"/>
+    <sheet name="AutoData-Template" sheetId="8" r:id="rId2"/>
     <sheet name="8H-Template" sheetId="2" r:id="rId3"/>
     <sheet name="12H-Template" sheetId="7" r:id="rId4"/>
     <sheet name="Final8H-Template" sheetId="1" r:id="rId5"/>
@@ -959,7 +959,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,50 +1186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1241,6 +1197,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1259,47 +1259,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1914,15 +1902,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -1981,9 +1969,9 @@
       <c r="J4" t="s">
         <v>64</v>
       </c>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
@@ -2047,40 +2035,40 @@
       <c r="B9" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="103" t="s">
+      <c r="E9" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="K9" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="103" t="s">
+      <c r="L9" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="103" t="s">
+      <c r="M9" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="103" t="s">
+      <c r="N9" s="87" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2088,40 +2076,40 @@
       <c r="B10" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="104" t="s">
+      <c r="H10" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="104" t="s">
+      <c r="I10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="105" t="s">
+      <c r="J10" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="103" t="s">
+      <c r="N10" s="87" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2129,40 +2117,40 @@
       <c r="B11" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="103" t="s">
+      <c r="D11" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="103" t="s">
+      <c r="E11" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="104" t="s">
+      <c r="H11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="104" t="s">
+      <c r="I11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="104" t="s">
+      <c r="J11" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="104" t="s">
+      <c r="L11" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="M11" s="104" t="s">
+      <c r="M11" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="105" t="s">
+      <c r="N11" s="89" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2184,211 +2172,209 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="101" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="100" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="100" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="17"/>
+    <col min="1" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
+    <col min="7" max="14" width="8.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="89" t="s">
+      <c r="I1" s="99"/>
+      <c r="J1" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="88"/>
-      <c r="O1" s="89" t="s">
+      <c r="N1" s="99"/>
+      <c r="O1" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="100" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="92"/>
-      <c r="P3" s="92"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-    </row>
-    <row r="5" spans="1:16" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-    </row>
-    <row r="6" spans="1:16" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-    </row>
-    <row r="7" spans="1:16" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-    </row>
-    <row r="8" spans="1:16" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-    </row>
-    <row r="9" spans="1:16" s="98" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+    </row>
+    <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+    </row>
+    <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="103"/>
+      <c r="O6" s="103"/>
+      <c r="P6" s="103"/>
+    </row>
+    <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+    </row>
+    <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
+      <c r="O8" s="103"/>
+      <c r="P8" s="103"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2399,19 +2385,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="108"/>
+    <col min="1" max="1" width="8.88671875" style="92"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="10" width="8.109375" customWidth="1"/>
     <col min="11" max="11" width="14.21875" customWidth="1"/>
     <col min="12" max="12" width="14.21875" style="20" customWidth="1"/>
@@ -2457,7 +2443,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="91" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="80" t="s">
@@ -2524,7 +2510,7 @@
       <c r="Y5" s="74"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="72"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -2572,7 +2558,7 @@
       <c r="V6" s="32"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="59"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -2620,7 +2606,7 @@
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="59"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -2668,7 +2654,7 @@
       <c r="V8" s="32"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="59"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -2716,7 +2702,7 @@
       <c r="V9" s="32"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="59"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -2764,7 +2750,7 @@
       <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -2812,7 +2798,7 @@
       <c r="V11" s="32"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -2860,7 +2846,7 @@
       <c r="V12" s="32"/>
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="128"/>
+      <c r="A13" s="96"/>
       <c r="B13" s="44"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -3050,19 +3036,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="125"/>
+    <col min="1" max="1" width="8.88671875" style="93"/>
     <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="8.5546875" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" customWidth="1"/>
     <col min="6" max="6" width="7.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="10" width="8.109375" customWidth="1"/>
     <col min="11" max="11" width="14.21875" customWidth="1"/>
     <col min="12" max="12" width="14.21875" style="20" customWidth="1"/>
@@ -3108,7 +3094,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="94" t="s">
         <v>91</v>
       </c>
       <c r="B5" s="80" t="s">
@@ -3175,7 +3161,7 @@
       <c r="Y5" s="74"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="127"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="72"/>
       <c r="C6" s="71"/>
       <c r="D6" s="71"/>
@@ -3223,7 +3209,7 @@
       <c r="V6" s="32"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="127"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="59"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -3271,7 +3257,7 @@
       <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="59"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -3319,7 +3305,7 @@
       <c r="V8" s="32"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="127"/>
+      <c r="A9" s="95"/>
       <c r="B9" s="59"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -3367,7 +3353,7 @@
       <c r="V9" s="32"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="127"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="59"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -3415,7 +3401,7 @@
       <c r="V10" s="32"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="127"/>
+      <c r="A11" s="95"/>
       <c r="B11" s="57"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
@@ -3463,7 +3449,7 @@
       <c r="V11" s="32"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="127"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
@@ -3505,7 +3491,7 @@
       <c r="V12" s="32"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
+      <c r="A13" s="95"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
       <c r="D13" s="56"/>
@@ -3547,7 +3533,7 @@
       <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
       <c r="D14" s="56"/>
@@ -3589,7 +3575,7 @@
       <c r="V14" s="32"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="127"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
       <c r="D15" s="56"/>
@@ -3631,7 +3617,7 @@
       <c r="V15" s="32"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="127"/>
+      <c r="A16" s="95"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
@@ -3679,7 +3665,7 @@
       <c r="V16" s="32"/>
     </row>
     <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="128"/>
+      <c r="A17" s="96"/>
       <c r="B17" s="44"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -3746,7 +3732,7 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="125"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
@@ -3770,7 +3756,7 @@
       <c r="Q21" s="18"/>
     </row>
     <row r="22" spans="1:22" s="19" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="125"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="24" t="str">
         <f>IF(G17&gt;1,G17,"")</f>
         <v/>
@@ -3797,7 +3783,7 @@
       <c r="Q22" s="18"/>
     </row>
     <row r="23" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="125"/>
+      <c r="A23" s="93"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -3815,7 +3801,7 @@
       <c r="Q23" s="18"/>
     </row>
     <row r="24" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="125"/>
+      <c r="A24" s="93"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -3896,14 +3882,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3912,12 +3898,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,10 +3930,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="122"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4041,11 +4027,11 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="9"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
@@ -4059,17 +4045,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -4104,14 +4090,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4120,12 +4106,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4152,10 +4138,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="122"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4293,11 +4279,11 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="3:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -4311,12 +4297,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I15:J15"/>
@@ -4326,6 +4306,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\456\ProjectNewV2\Workplace\AutoNewProfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\456\ProjectNewV2\WebfactoryDataCollection-dev-3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1259,6 +1259,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,9 +1282,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3037,7 +3037,7 @@
   <dimension ref="A2:Y24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3235,7 +3235,7 @@
         <v/>
       </c>
       <c r="N7" s="48" t="str">
-        <f t="shared" ref="N7:N17" si="4">IFERROR(IF(G7&gt;1,(G7/(D7*1)),""),"")</f>
+        <f>IFERROR(IF(G7&gt;1,(G7/(D7*2)),""),"")</f>
         <v/>
       </c>
       <c r="O7" s="48" t="str">
@@ -3283,7 +3283,7 @@
         <v/>
       </c>
       <c r="N8" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G8&gt;1,(G8/(D8*3)),""),"")</f>
         <v/>
       </c>
       <c r="O8" s="48" t="str">
@@ -3331,7 +3331,7 @@
         <v/>
       </c>
       <c r="N9" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G9&gt;1,(G9/(D9*4)),""),"")</f>
         <v/>
       </c>
       <c r="O9" s="48" t="str">
@@ -3379,7 +3379,7 @@
         <v/>
       </c>
       <c r="N10" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G10&gt;1,(G10/(D10*5)),""),"")</f>
         <v/>
       </c>
       <c r="O10" s="48" t="str">
@@ -3427,7 +3427,7 @@
         <v/>
       </c>
       <c r="N11" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G11&gt;1,(G11/(D11*6)),""),"")</f>
         <v/>
       </c>
       <c r="O11" s="48" t="str">
@@ -3475,7 +3475,7 @@
         <v/>
       </c>
       <c r="N12" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G12&gt;1,(G12/(D12*7)),""),"")</f>
         <v/>
       </c>
       <c r="O12" s="48" t="str">
@@ -3517,7 +3517,7 @@
         <v/>
       </c>
       <c r="N13" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G13&gt;1,(G13/(D13*8)),""),"")</f>
         <v/>
       </c>
       <c r="O13" s="48" t="str">
@@ -3559,7 +3559,7 @@
         <v/>
       </c>
       <c r="N14" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G14&gt;1,(G14/(D14*9)),""),"")</f>
         <v/>
       </c>
       <c r="O14" s="48" t="str">
@@ -3601,7 +3601,7 @@
         <v/>
       </c>
       <c r="N15" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G15&gt;1,(G15/(D15*10)),""),"")</f>
         <v/>
       </c>
       <c r="O15" s="48" t="str">
@@ -3643,7 +3643,7 @@
         <v/>
       </c>
       <c r="N16" s="48" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G16&gt;1,(G16/(D16*11)),""),"")</f>
         <v/>
       </c>
       <c r="O16" s="48" t="str">
@@ -3691,7 +3691,7 @@
         <v/>
       </c>
       <c r="N17" s="36" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(IF(G17&gt;1,(G17/(D17*12)),""),"")</f>
         <v/>
       </c>
       <c r="O17" s="36" t="str">
@@ -3882,14 +3882,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3898,12 +3898,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3930,10 +3930,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="121"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4027,11 +4027,11 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="9"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
@@ -4045,17 +4045,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -4090,14 +4090,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4106,12 +4106,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4138,10 +4138,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="121"/>
+      <c r="J4" s="122"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4279,11 +4279,11 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="3:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="122" t="s">
+      <c r="C17" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -4297,6 +4297,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I15:J15"/>
@@ -4306,12 +4312,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\456\ProjectNewV2\WebfactoryDataCollection-dev-3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intel\456\ProjectNewV2\WebfactoryDataCollection-dev-6.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Template" sheetId="5" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>Hodinový výkon - sledovanie</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Stĺpec9</t>
   </si>
   <si>
-    <t>8H-Ranná</t>
-  </si>
-  <si>
     <t>6:00-7:00</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
     <t>13:00-14:00</t>
   </si>
   <si>
-    <t>8H-Poobedná</t>
-  </si>
-  <si>
     <t>14:00-15:00</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     <t>21:00-22:00</t>
   </si>
   <si>
-    <t>8H-Nočná</t>
-  </si>
-  <si>
     <t>22:00-23:00</t>
   </si>
   <si>
@@ -299,16 +290,19 @@
     <t>Stĺpec13</t>
   </si>
   <si>
-    <t>12H-Ranná</t>
-  </si>
-  <si>
-    <t>12H-Nočná</t>
-  </si>
-  <si>
     <t>ShiftCheck</t>
   </si>
   <si>
     <t>cas ziskania data</t>
+  </si>
+  <si>
+    <t>Ranná</t>
+  </si>
+  <si>
+    <t>Nočná</t>
+  </si>
+  <si>
+    <t>Poobedná</t>
   </si>
 </sst>
 </file>
@@ -1259,29 +1253,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1891,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1943,31 +1937,31 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>59</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>61</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
       </c>
       <c r="L4" s="86"/>
       <c r="M4" s="86"/>
@@ -1975,65 +1969,65 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>70</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>48</v>
@@ -2060,102 +2054,101 @@
         <v>55</v>
       </c>
       <c r="K9" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="87" t="s">
         <v>84</v>
-      </c>
-      <c r="L9" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="N9" s="87" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="E10" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="F10" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="88" t="s">
+      <c r="G10" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="88" t="s">
+      <c r="H10" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="88" t="s">
+      <c r="I10" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="88" t="s">
+      <c r="J10" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="89" t="s">
+      <c r="K10" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="L10" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="N10" s="87" t="s">
         <v>67</v>
-      </c>
-      <c r="M10" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="87" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="F11" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="G11" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="H11" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="88" t="s">
+      <c r="I11" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="K11" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="L11" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="J11" s="88" t="s">
+      <c r="M11" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="K11" s="88" t="s">
+      <c r="N11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="L11" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="88" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="89" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="vqzIoE7vuPpjff7xj3DmHN2UhQX9HUo7O8ok1gtkE4LQ/8rq2YZhm0p98e5oFw9jCKMoEDY5alDn/6qZiopQxg==" saltValue="lXEw6qDY+WvXM8uICCiSsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
@@ -2226,7 +2219,7 @@
       </c>
       <c r="N1" s="99"/>
       <c r="O1" s="100" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P1" s="100" t="s">
         <v>35</v>
@@ -2444,7 +2437,7 @@
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>32</v>
@@ -3036,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -3095,7 +3088,7 @@
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:25" s="73" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="94" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>32</v>
@@ -3882,14 +3875,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3898,12 +3891,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3930,10 +3923,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="122"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4027,11 +4020,11 @@
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="115" t="s">
+      <c r="C13" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
       <c r="F13" s="9"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
@@ -4045,17 +4038,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -4090,14 +4083,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4106,12 +4099,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4138,10 +4131,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="122"/>
+      <c r="J4" s="121"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4279,11 +4272,11 @@
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="3:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="115" t="s">
+      <c r="C17" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -4297,12 +4290,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I15:J15"/>
@@ -4312,6 +4299,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Data-Template"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="98">
   <si>
     <t>Hodinový výkon - sledovanie</t>
   </si>
@@ -70,12 +70,33 @@
     <t>OEE</t>
   </si>
   <si>
+    <t>0Hour</t>
+  </si>
+  <si>
     <t>Zmena</t>
   </si>
   <si>
     <t>Dátum</t>
   </si>
   <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ZLE AK</t>
+  </si>
+  <si>
+    <t>DOSLO</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>KU ZMENE</t>
+  </si>
+  <si>
+    <t>ARTIKLU</t>
+  </si>
+  <si>
     <t>cas ziskania data</t>
   </si>
   <si>
@@ -97,6 +118,15 @@
     <t>total nok</t>
   </si>
   <si>
+    <t>zmena artiklu</t>
+  </si>
+  <si>
+    <t>real 0/8Hour OK</t>
+  </si>
+  <si>
+    <t>real 0/8Hour NOK</t>
+  </si>
+  <si>
     <t>real donwtime</t>
   </si>
   <si>
@@ -106,6 +136,12 @@
     <t>productivity/1h</t>
   </si>
   <si>
+    <t>oee/6up</t>
+  </si>
+  <si>
+    <t>total oee/6up</t>
+  </si>
+  <si>
     <t>calculated productivity</t>
   </si>
   <si>
@@ -118,15 +154,18 @@
     <t>webfactory oee</t>
   </si>
   <si>
-    <t>oee/6up</t>
-  </si>
-  <si>
-    <t>total oee/6up</t>
-  </si>
-  <si>
     <t>popis prestoja</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">ZLE AK </t>
+  </si>
+  <si>
+    <t>DOSLO KU ZMENE</t>
+  </si>
+  <si>
     <t xml:space="preserve">total shift </t>
   </si>
   <si>
@@ -137,12 +176,6 @@
   </si>
   <si>
     <t>TimeSend</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>NOK</t>
   </si>
   <si>
     <t>Product</t>
@@ -292,8 +325,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0%"/>
-    <numFmt numFmtId="165" formatCode="h:mm tt"/>
-    <numFmt numFmtId="166" formatCode="h:mm Am/Pm"/>
+    <numFmt numFmtId="165" formatCode="h:mm Am/Pm"/>
+    <numFmt numFmtId="166" formatCode="h:mm tt"/>
     <numFmt numFmtId="167" formatCode="h:mm:ss Am/Pm"/>
     <numFmt numFmtId="168" formatCode="#,##0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.00000"/>
@@ -1055,11 +1088,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="134">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1148,233 +1184,269 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="37" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="38" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="39" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="36" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="40" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="168" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="169" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="44" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="40" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="13" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="26" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="25" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="22" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="30" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="167" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="37" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="38" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="39" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="36" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="40" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="168" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="169" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="44" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="28" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="36" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1394,25 +1466,28 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="48" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="48" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,25 +1504,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:J6" displayName="TimeTable8H" name="TimeTable8H" id="1" totalsRowShown="0">
-  <autoFilter ref="B3:J6"/>
-  <tableColumns count="9">
-    <tableColumn name="TimeTable8H" id="1"/>
-    <tableColumn name="Stĺpec2" id="2"/>
-    <tableColumn name="Stĺpec3" id="3"/>
-    <tableColumn name="Stĺpec4" id="4"/>
-    <tableColumn name="Stĺpec5" id="5"/>
-    <tableColumn name="Stĺpec6" id="6"/>
-    <tableColumn name="Stĺpec7" id="7"/>
-    <tableColumn name="Stĺpec8" id="8"/>
-    <tableColumn name="Stĺpec9" id="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B9:N11" displayName="TimeTable12H" name="TimeTable12H" id="2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B9:N11" displayName="TimeTable12H" name="TimeTable12H" id="1" totalsRowShown="0">
   <autoFilter ref="B9:N11"/>
   <tableColumns count="13">
     <tableColumn name="TimeTable12H" id="1"/>
@@ -1463,6 +1520,24 @@
     <tableColumn name="Stĺpec11" id="11"/>
     <tableColumn name="Stĺpec12" id="12"/>
     <tableColumn name="Stĺpec13" id="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:J6" displayName="TimeTable8H" name="TimeTable8H" id="2" totalsRowShown="0">
+  <autoFilter ref="B3:J6"/>
+  <tableColumns count="9">
+    <tableColumn name="TimeTable8H" id="1"/>
+    <tableColumn name="Stĺpec2" id="2"/>
+    <tableColumn name="Stĺpec3" id="3"/>
+    <tableColumn name="Stĺpec4" id="4"/>
+    <tableColumn name="Stĺpec5" id="5"/>
+    <tableColumn name="Stĺpec6" id="6"/>
+    <tableColumn name="Stĺpec7" id="7"/>
+    <tableColumn name="Stĺpec8" id="8"/>
+    <tableColumn name="Stĺpec9" id="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -1758,350 +1833,350 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="30" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="31" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="133" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="32" width="10.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="B3" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
-      <c r="B4" s="115">
+      <c r="B4" s="128">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="115">
+      <c r="B5" s="128">
         <v>2</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="115">
+      <c r="B6" s="128">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="116" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="116" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="116" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="116" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="116" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="M9" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" s="116" t="s">
-        <v>86</v>
+      <c r="B9" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="129" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="129" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="129" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="129" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" s="129" t="s">
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="115">
+      <c r="B10" s="128">
         <v>4</v>
       </c>
-      <c r="C10" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="I10" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="L10" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="M10" s="116" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="116" t="s">
+      <c r="C10" s="130" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
+      <c r="D10" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="130" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="130" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="131" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="129" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="1"/>
-      <c r="B11" s="115">
+      <c r="B11" s="128">
         <v>5</v>
       </c>
-      <c r="C11" s="116" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="M11" s="117" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="118" t="s">
+      <c r="C11" s="129" t="s">
         <v>81</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="132" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="130" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="130" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="130" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="130" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="131" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2124,213 +2199,213 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="113" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="113" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="114" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="114" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="114" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="114" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="114" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="114" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="114" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="114" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="32" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="126" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="126" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="126" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="126" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="126" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="126" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="126" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="126" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75">
-      <c r="A1" s="104" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="104" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="105" t="s">
+      <c r="A1" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="104" t="s">
-        <v>48</v>
+      <c r="D1" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="119" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="53"/>
+      <c r="O1" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="119" t="s">
+        <v>59</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
+      <c r="A2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="109"/>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="106"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="106"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
-      <c r="P7" s="106"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A8" s="106"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A9" s="106"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A5" s="120"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2348,31 +2423,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="102" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="102" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="102" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="101" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="30" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="30" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="19" max="19" style="30" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="20" max="20" style="30" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="103" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="30" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="30" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="30" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="103" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="31" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="111" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="111" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="111" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="32" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="110" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="31" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="112" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="31" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="19" max="19" style="31" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="20" max="20" style="31" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="113" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="31" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="31" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="31" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="113" width="24.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -2384,23 +2459,23 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="31"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="35"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="33"/>
+      <c r="U1" s="36"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="33"/>
+      <c r="Y1" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1"/>
@@ -2411,54 +2486,58 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="31"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="33"/>
+      <c r="Y2" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1"/>
-      <c r="B3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="36"/>
+      <c r="B3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="37"/>
+      <c r="F3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="40"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="1"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="33"/>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
@@ -2469,434 +2548,446 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="1"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="31"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="33"/>
+      <c r="T4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A5" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="Y4" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="46" t="s">
+      <c r="D5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="F5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="G5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="H5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="I5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="L5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="M5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
+      <c r="N5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54">
-        <f>IF(G6=0,"",G6)</f>
-      </c>
-      <c r="F6" s="54">
-        <f>IF(H6=0,"",H6)</f>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59">
-        <f>IF(IFERROR(AND(G6&gt;1,(((E6+F6)-D6)/D6)&lt;0),FALSE),(((E6+F6)-D6)/D6)*-60,"")</f>
-      </c>
-      <c r="M6" s="60">
-        <f>IFERROR(IF(E6&gt;1,((E6+F6)/D6),""),"")</f>
-      </c>
-      <c r="N6" s="61">
-        <f>IFERROR(IF(G6&gt;1,(G6/(D6*1)),""),"")</f>
-      </c>
-      <c r="O6" s="61">
-        <f>IFERROR(IF(AND(G6&gt;1,H6&gt;1),(H6/(H6+G6)),""),"")</f>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="114">
+        <v>0</v>
+      </c>
+      <c r="M6" s="115">
+        <v>0</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68">
         <f>IF(E6&gt;1,(E6/#REF!),"")</f>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="67">
         <f>IF(I6&gt;1,(I6/(#REF!*1)),"")</f>
       </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="33"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="36"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="33"/>
+      <c r="Y6" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67">
-        <f>IFERROR(IF(AND(G6&gt;1,G7&gt;1)=TRUE,G7-G6,""),"")</f>
-      </c>
-      <c r="F7" s="67">
-        <f>IFERROR(IF(AND(H6&gt;1,H7&gt;1)=TRUE,H7-H6,""),"")</f>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72">
-        <f>IF(IFERROR(AND(G7&gt;1,(((E7+F7)-D7)/D7)&lt;0),FALSE),(((E7+F7)-D7)/D7)*-60,"")</f>
-      </c>
-      <c r="M7" s="73">
-        <f>IFERROR(IF(E7&gt;1,((E7+F7)/D7),""),"")</f>
-      </c>
-      <c r="N7" s="40">
-        <f>IFERROR(IF(G7&gt;1,(G7/(D7*2)),""),"")</f>
-      </c>
-      <c r="O7" s="40">
-        <f>IFERROR(IF(AND(G7&gt;1,H7&gt;1),(H7/(H7+G7)),""),"")</f>
-      </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75">
+      <c r="A7" s="54"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="116">
+        <v>0</v>
+      </c>
+      <c r="M7" s="117">
+        <v>0</v>
+      </c>
+      <c r="N7" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82">
         <f>IF(E7&gt;1,(E7/#REF!),"")</f>
       </c>
-      <c r="S7" s="74">
+      <c r="S7" s="81">
         <f>IF(I7&gt;1,(I7/(#REF!*2)),"")</f>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="33"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="36"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="33"/>
+      <c r="Y7" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67">
-        <f>IFERROR(IF(AND(G7&gt;1,G8&gt;1)=TRUE,G8-G7,""),"")</f>
-      </c>
-      <c r="F8" s="67">
-        <f>IFERROR(IF(AND(H7&gt;1,H8&gt;1)=TRUE,H8-H7,""),"")</f>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72">
-        <f>IF(IFERROR(AND(G8&gt;1,(((E8+F8)-D8)/D8)&lt;0),FALSE),(((E8+F8)-D8)/D8)*-60,"")</f>
-      </c>
-      <c r="M8" s="73">
-        <f>IFERROR(IF(E8&gt;1,((E8+F8)/D8),""),"")</f>
-      </c>
-      <c r="N8" s="40">
-        <f>IFERROR(IF(G8&gt;1,(G8/(D8*3)),""),"")</f>
-      </c>
-      <c r="O8" s="40">
-        <f>IFERROR(IF(AND(G8&gt;1,H8&gt;1),(H8/(H8+G8)),""),"")</f>
-      </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75">
+      <c r="A8" s="54"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="116">
+        <v>0</v>
+      </c>
+      <c r="M8" s="117">
+        <v>0</v>
+      </c>
+      <c r="N8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82">
         <f>IF(E8&gt;1,(E8/#REF!),"")</f>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="81">
         <f>IF(I8&gt;1,(I8/(#REF!*3)),"")</f>
       </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="33"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="36"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="33"/>
+      <c r="Y8" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="51"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67">
-        <f>IFERROR(IF(AND(G8&gt;1,G9&gt;1)=TRUE,G9-G8,""),"")</f>
-      </c>
-      <c r="F9" s="67">
-        <f>IFERROR(IF(AND(H8&gt;1,H9&gt;1)=TRUE,H9-H8,""),"")</f>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72">
-        <f>IF(IFERROR(AND(G9&gt;1,(((E9+F9)-D9)/D9)&lt;0),FALSE),(((E9+F9)-D9)/D9)*-60,"")</f>
-      </c>
-      <c r="M9" s="73">
-        <f>IFERROR(IF(E9&gt;1,((E9+F9)/D9),""),"")</f>
-      </c>
-      <c r="N9" s="40">
-        <f>IFERROR(IF(G9&gt;1,(G9/(D9*4)),""),"")</f>
-      </c>
-      <c r="O9" s="40">
-        <f>IFERROR(IF(AND(G9&gt;1,H9&gt;1),(H9/(H9+G9)),""),"")</f>
-      </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75">
+      <c r="A9" s="54"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="116">
+        <v>0</v>
+      </c>
+      <c r="M9" s="117">
+        <v>0</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82">
         <f>IF(E9&gt;1,(E9/#REF!),"")</f>
       </c>
-      <c r="S9" s="74">
+      <c r="S9" s="81">
         <f>IF(I9&gt;1,(I9/(#REF!*4)),"")</f>
       </c>
-      <c r="T9" s="64"/>
-      <c r="U9" s="33"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="36"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="33"/>
+      <c r="Y9" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="51"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67">
-        <f>IFERROR(IF(AND(G9&gt;1,G10&gt;1)=TRUE,G10-G9,""),"")</f>
-      </c>
-      <c r="F10" s="67">
-        <f>IFERROR(IF(AND(H9&gt;1,H10&gt;1)=TRUE,H10-H9,""),"")</f>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72">
-        <f>IF(IFERROR(AND(G10&gt;1,(((E10+F10)-D10)/D10)&lt;0),FALSE),(((E10+F10)-D10)/D10)*-60,"")</f>
-      </c>
-      <c r="M10" s="73">
-        <f>IFERROR(IF(E10&gt;1,((E10+F10)/D10),""),"")</f>
-      </c>
-      <c r="N10" s="40">
-        <f>IFERROR(IF(G10&gt;1,(G10/(D10*5)),""),"")</f>
-      </c>
-      <c r="O10" s="40">
-        <f>IFERROR(IF(AND(G10&gt;1,H10&gt;1),(H10/(H10+G10)),""),"")</f>
-      </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75">
+      <c r="A10" s="54"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="116">
+        <v>0</v>
+      </c>
+      <c r="M10" s="117">
+        <v>0</v>
+      </c>
+      <c r="N10" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82">
         <f>IF(E10&gt;1,(E10/#REF!),"")</f>
       </c>
-      <c r="S10" s="74">
+      <c r="S10" s="81">
         <f>IF(I10&gt;1,(I10/(#REF!*5)),"")</f>
       </c>
-      <c r="T10" s="64"/>
-      <c r="U10" s="33"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="33"/>
+      <c r="Y10" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67">
-        <f>IFERROR(IF(AND(G10&gt;1,G11&gt;1)=TRUE,G11-G10,""),"")</f>
-      </c>
-      <c r="F11" s="67">
-        <f>IFERROR(IF(AND(H10&gt;1,H11&gt;1)=TRUE,H11-H10,""),"")</f>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72">
-        <f>IF(IFERROR(AND(G11&gt;1,(((E11+F11)-D11)/D11)&lt;0),FALSE),(((E11+F11)-D11)/D11)*-60,"")</f>
-      </c>
-      <c r="M11" s="73">
-        <f>IFERROR(IF(E11&gt;1,((E11+F11)/D11),""),"")</f>
-      </c>
-      <c r="N11" s="40">
-        <f>IFERROR(IF(G11&gt;1,(G11/(D11*6)),""),"")</f>
-      </c>
-      <c r="O11" s="40">
-        <f>IFERROR(IF(AND(G11&gt;1,H11&gt;1),(H11/(H11+G11)),""),"")</f>
-      </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75">
+      <c r="A11" s="54"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="116">
+        <v>0</v>
+      </c>
+      <c r="M11" s="117">
+        <v>0</v>
+      </c>
+      <c r="N11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82">
         <f>IF(E11&gt;1,(E11/#REF!),"")</f>
       </c>
-      <c r="S11" s="74">
+      <c r="S11" s="81">
         <f>IF(I11&gt;1,(I11/(#REF!*6)),"")</f>
       </c>
-      <c r="T11" s="64"/>
-      <c r="U11" s="33"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="36"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="33"/>
+      <c r="Y11" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="51"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67">
-        <f>IFERROR(IF(AND(G11&gt;1,G12&gt;1)=TRUE,G12-G11,""),"")</f>
-      </c>
-      <c r="F12" s="67">
-        <f>IFERROR(IF(AND(H11&gt;1,H12&gt;1)=TRUE,H12-H11,""),"")</f>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72">
-        <f>IF(IFERROR(AND(G12&gt;1,(((E12+F12)-D12)/D12)&lt;0),FALSE),(((E12+F12)-D12)/D12)*-60,"")</f>
-      </c>
-      <c r="M12" s="73">
-        <f>IFERROR(IF(E12&gt;1,((E12+F12)/D12),""),"")</f>
-      </c>
-      <c r="N12" s="40">
-        <f>IFERROR(IF(G12&gt;1,(G12/(D12*7)),""),"")</f>
-      </c>
-      <c r="O12" s="40">
-        <f>IFERROR(IF(AND(G12&gt;1,H12&gt;1),(H12/(H12+G12)),""),"")</f>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75">
+      <c r="A12" s="54"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="116">
+        <v>0</v>
+      </c>
+      <c r="M12" s="117">
+        <v>0</v>
+      </c>
+      <c r="N12" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="82">
         <f>IF(E12&gt;1,(E12/#REF!),"")</f>
       </c>
-      <c r="S12" s="74">
+      <c r="S12" s="81">
         <f>IF(I12&gt;1,(I12/(#REF!*7)),"")</f>
       </c>
-      <c r="T12" s="64"/>
-      <c r="U12" s="33"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="33"/>
+      <c r="Y12" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81">
-        <f>IFERROR(IF(AND(G12&gt;1,G13&gt;1)=TRUE,G13-G12,""),"")</f>
-      </c>
-      <c r="F13" s="81">
-        <f>IFERROR(IF(AND(H12&gt;1,H13&gt;1)=TRUE,H13-H12,""),"")</f>
-      </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="81">
-        <f>IF(IFERROR(AND(G13&gt;1,(((E13+F13)-D13)/D13)&lt;0),FALSE),(((E13+F13)-D13)/D13)*-60,"")</f>
-      </c>
-      <c r="M13" s="85">
-        <f>IFERROR(IF(E13&gt;1,((E13+F13)/D13),""),"")</f>
-      </c>
-      <c r="N13" s="86">
-        <f>IFERROR(IF(G13&gt;1,(G13/(D13*8)),""),"")</f>
-      </c>
-      <c r="O13" s="86">
-        <f>IFERROR(IF(AND(G13&gt;1,H13&gt;1),(H13/(H13+G13)),""),"")</f>
-      </c>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="88">
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="89">
+        <v>0</v>
+      </c>
+      <c r="M13" s="118">
+        <v>0</v>
+      </c>
+      <c r="N13" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="95"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="97">
         <f>IF(E13&gt;1,(E13/#REF!),"")</f>
       </c>
-      <c r="S13" s="87">
+      <c r="S13" s="96">
         <f>IF(I13&gt;1,(I13/(#REF!*8)),"")</f>
       </c>
-      <c r="T13" s="64"/>
-      <c r="U13" s="33"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="36"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="33"/>
+      <c r="Y13" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
@@ -2907,147 +2998,153 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="1"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="31"/>
+      <c r="O14" s="33"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="33"/>
+      <c r="U14" s="36"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="33"/>
+      <c r="Y14" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="1"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="89"/>
+      <c r="O15" s="98"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="33"/>
+      <c r="U15" s="36"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="33"/>
+      <c r="Y15" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
+      <c r="B16" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="94">
-        <f>IF(AND(I12&gt;1,H12&gt;1),(H12/(H12+I12)),"")</f>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="102" t="s">
+        <v>44</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="89"/>
+      <c r="O16" s="98"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="38"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="41"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="33"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="33"/>
+      <c r="Y16" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>35</v>
+      <c r="B17" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="106" t="s">
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="39"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="42"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="89"/>
+      <c r="O17" s="98"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="41"/>
+      <c r="Q17" s="44"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="33"/>
+      <c r="U17" s="36"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="33"/>
+      <c r="Y17" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="99">
-        <f>IF(G13&gt;1,G13,"")</f>
-      </c>
-      <c r="C18" s="100">
-        <f>IF(H13&gt;1,H13,"")</f>
-      </c>
-      <c r="D18" s="87">
-        <f>IF(Q13&gt;0,Q13,"")</f>
+      <c r="B18" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="109" t="s">
+        <v>44</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="39"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="42"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="89"/>
+      <c r="O18" s="98"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="41"/>
+      <c r="Q18" s="44"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="33"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="33"/>
+      <c r="Y18" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
@@ -3058,23 +3155,23 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="39"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="42"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="89"/>
+      <c r="O19" s="98"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="41"/>
+      <c r="Q19" s="44"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="33"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="33"/>
+      <c r="Y19" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
@@ -3085,23 +3182,23 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="39"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="42"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="89"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="41"/>
+      <c r="Q20" s="44"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="33"/>
+      <c r="U20" s="36"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="33"/>
+      <c r="Y20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3119,39 +3216,39 @@
   </sheetPr>
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="101" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="8.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="7.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="10.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="102" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="102" width="8.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="102" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="30" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="30" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="101" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="30" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="30" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="30" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="19" max="19" style="30" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
-    <col min="20" max="20" style="30" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="103" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="30" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="30" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="30" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="103" width="24.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="110" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="7.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="31" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="111" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="111" width="8.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="111" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="32" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="31" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="110" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="31" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="112" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="31" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="19" max="19" style="31" width="14.147857142857141" customWidth="1" bestFit="1" hidden="1"/>
+    <col min="20" max="20" style="31" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="113" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="31" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="31" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="31" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="113" width="24.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="31"/>
+      <c r="A1" s="33"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3159,26 +3256,26 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="1"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="31"/>
+      <c r="O1" s="33"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="35"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="33"/>
+      <c r="U1" s="36"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-      <c r="Y1" s="33"/>
+      <c r="Y1" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="31"/>
+      <c r="A2" s="33"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3186,651 +3283,673 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="1"/>
+      <c r="I2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="31"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="33"/>
+      <c r="U2" s="36"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="33"/>
+      <c r="Y2" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="31"/>
-      <c r="B3" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="36"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="39"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="1"/>
+      <c r="F3" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="Q3" s="35"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="33"/>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="31"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="O4" s="31"/>
+      <c r="O4" s="33"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="Q4" s="35"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="33"/>
+      <c r="T4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>23</v>
+      </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="33"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="43">
-      <c r="A5" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="Y4" s="36"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="46">
+      <c r="A5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="46" t="s">
+      <c r="D5" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="46" t="s">
+      <c r="E5" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="F5" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="G5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="H5" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="I5" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="L5" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="49" t="s">
+      <c r="M5" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
+      <c r="N5" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="V5" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5" s="53"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54">
-        <f>IF(G6=0,"",G6)</f>
-      </c>
-      <c r="F6" s="54">
-        <f>IF(H6=0,"",H6)</f>
-      </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="59">
-        <f>IF(IFERROR(AND(G6&gt;1,(((E6+F6)-D6)/D6)&lt;0),FALSE),(((E6+F6)-D6)/D6)*-60,"")</f>
-      </c>
-      <c r="M6" s="60">
-        <f>IFERROR(IF(E6&gt;1,((E6+F6)/D6),""),"")</f>
-      </c>
-      <c r="N6" s="61">
-        <f>IFERROR(IF(G6&gt;1,(G6/(D6*1)),""),"")</f>
-      </c>
-      <c r="O6" s="61">
-        <f>IFERROR(IF(AND(G6&gt;1,H6&gt;1),(H6/(H6+G6)),""),"")</f>
-      </c>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="68">
         <f>IF(E6&gt;1,(E6/#REF!),"")</f>
       </c>
-      <c r="S6" s="62">
+      <c r="S6" s="67">
         <f>IF(I6&gt;1,(I6/(#REF!*1)),"")</f>
       </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="33"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="36"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="33"/>
+      <c r="Y6" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="51"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67">
-        <f>IFERROR(IF(AND(G6&gt;1,G7&gt;1)=TRUE,G7-G6,""),"")</f>
-      </c>
-      <c r="F7" s="67">
-        <f>IFERROR(IF(AND(H6&gt;1,H7&gt;1)=TRUE,H7-H6,""),"")</f>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72">
-        <f>IF(IFERROR(AND(G7&gt;1,(((E7+F7)-D7)/D7)&lt;0),FALSE),(((E7+F7)-D7)/D7)*-60,"")</f>
-      </c>
-      <c r="M7" s="73">
-        <f>IFERROR(IF(E7&gt;1,((E7+F7)/D7),""),"")</f>
-      </c>
-      <c r="N7" s="40">
-        <f>IFERROR(IF(G7&gt;1,(G7/(D7*2)),""),"")</f>
-      </c>
-      <c r="O7" s="40">
-        <f>IFERROR(IF(AND(G7&gt;1,H7&gt;1),(H7/(H7+G7)),""),"")</f>
-      </c>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="75">
+      <c r="A7" s="54"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="82">
         <f>IF(E7&gt;1,(E7/#REF!),"")</f>
       </c>
-      <c r="S7" s="74">
+      <c r="S7" s="81">
         <f>IF(I7&gt;1,(I7/(#REF!*2)),"")</f>
       </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="33"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="36"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="33"/>
+      <c r="Y7" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67">
-        <f>IFERROR(IF(AND(G7&gt;1,G8&gt;1)=TRUE,G8-G7,""),"")</f>
-      </c>
-      <c r="F8" s="67">
-        <f>IFERROR(IF(AND(H7&gt;1,H8&gt;1)=TRUE,H8-H7,""),"")</f>
-      </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="72">
-        <f>IF(IFERROR(AND(G8&gt;1,(((E8+F8)-D8)/D8)&lt;0),FALSE),(((E8+F8)-D8)/D8)*-60,"")</f>
-      </c>
-      <c r="M8" s="73">
-        <f>IFERROR(IF(E8&gt;1,((E8+F8)/D8),""),"")</f>
-      </c>
-      <c r="N8" s="40">
-        <f>IFERROR(IF(G8&gt;1,(G8/(D8*3)),""),"")</f>
-      </c>
-      <c r="O8" s="40">
-        <f>IFERROR(IF(AND(G8&gt;1,H8&gt;1),(H8/(H8+G8)),""),"")</f>
-      </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="75">
+      <c r="A8" s="54"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="82">
         <f>IF(E8&gt;1,(E8/#REF!),"")</f>
       </c>
-      <c r="S8" s="74">
+      <c r="S8" s="81">
         <f>IF(I8&gt;1,(I8/(#REF!*3)),"")</f>
       </c>
-      <c r="T8" s="64"/>
-      <c r="U8" s="33"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="36"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="33"/>
+      <c r="Y8" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="51"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67">
-        <f>IFERROR(IF(AND(G8&gt;1,G9&gt;1)=TRUE,G9-G8,""),"")</f>
-      </c>
-      <c r="F9" s="67">
-        <f>IFERROR(IF(AND(H8&gt;1,H9&gt;1)=TRUE,H9-H8,""),"")</f>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="72">
-        <f>IF(IFERROR(AND(G9&gt;1,(((E9+F9)-D9)/D9)&lt;0),FALSE),(((E9+F9)-D9)/D9)*-60,"")</f>
-      </c>
-      <c r="M9" s="73">
-        <f>IFERROR(IF(E9&gt;1,((E9+F9)/D9),""),"")</f>
-      </c>
-      <c r="N9" s="40">
-        <f>IFERROR(IF(G9&gt;1,(G9/(D9*4)),""),"")</f>
-      </c>
-      <c r="O9" s="40">
-        <f>IFERROR(IF(AND(G9&gt;1,H9&gt;1),(H9/(H9+G9)),""),"")</f>
-      </c>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75">
+      <c r="A9" s="54"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="82">
         <f>IF(E9&gt;1,(E9/#REF!),"")</f>
       </c>
-      <c r="S9" s="74">
+      <c r="S9" s="81">
         <f>IF(I9&gt;1,(I9/(#REF!*4)),"")</f>
       </c>
-      <c r="T9" s="64"/>
-      <c r="U9" s="33"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="36"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="33"/>
+      <c r="Y9" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="51"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67">
-        <f>IFERROR(IF(AND(G9&gt;1,G10&gt;1)=TRUE,G10-G9,""),"")</f>
-      </c>
-      <c r="F10" s="67">
-        <f>IFERROR(IF(AND(H9&gt;1,H10&gt;1)=TRUE,H10-H9,""),"")</f>
-      </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="72">
-        <f>IF(IFERROR(AND(G10&gt;1,(((E10+F10)-D10)/D10)&lt;0),FALSE),(((E10+F10)-D10)/D10)*-60,"")</f>
-      </c>
-      <c r="M10" s="73">
-        <f>IFERROR(IF(E10&gt;1,((E10+F10)/D10),""),"")</f>
-      </c>
-      <c r="N10" s="40">
-        <f>IFERROR(IF(G10&gt;1,(G10/(D10*5)),""),"")</f>
-      </c>
-      <c r="O10" s="40">
-        <f>IFERROR(IF(AND(G10&gt;1,H10&gt;1),(H10/(H10+G10)),""),"")</f>
-      </c>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75">
+      <c r="A10" s="54"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="82">
         <f>IF(E10&gt;1,(E10/#REF!),"")</f>
       </c>
-      <c r="S10" s="74">
+      <c r="S10" s="81">
         <f>IF(I10&gt;1,(I10/(#REF!*5)),"")</f>
       </c>
-      <c r="T10" s="64"/>
-      <c r="U10" s="33"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="36"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="33"/>
+      <c r="Y10" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67">
-        <f>IFERROR(IF(AND(G10&gt;1,G11&gt;1)=TRUE,G11-G10,""),"")</f>
-      </c>
-      <c r="F11" s="67">
-        <f>IFERROR(IF(AND(H10&gt;1,H11&gt;1)=TRUE,H11-H10,""),"")</f>
-      </c>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="72">
-        <f>IF(IFERROR(AND(G11&gt;1,(((E11+F11)-D11)/D11)&lt;0),FALSE),(((E11+F11)-D11)/D11)*-60,"")</f>
-      </c>
-      <c r="M11" s="73">
-        <f>IFERROR(IF(E11&gt;1,((E11+F11)/D11),""),"")</f>
-      </c>
-      <c r="N11" s="40">
-        <f>IFERROR(IF(G11&gt;1,(G11/(D11*6)),""),"")</f>
-      </c>
-      <c r="O11" s="40">
-        <f>IFERROR(IF(AND(G11&gt;1,H11&gt;1),(H11/(H11+G11)),""),"")</f>
-      </c>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75">
+      <c r="A11" s="54"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="82">
         <f>IF(E11&gt;1,(E11/#REF!),"")</f>
       </c>
-      <c r="S11" s="74">
+      <c r="S11" s="81">
         <f>IF(I11&gt;1,(I11/(#REF!*6)),"")</f>
       </c>
-      <c r="T11" s="64"/>
-      <c r="U11" s="33"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="36"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="33"/>
+      <c r="Y11" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="51"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67">
-        <f>IFERROR(IF(AND(G11&gt;1,G12&gt;1)=TRUE,G12-G11,""),"")</f>
-      </c>
-      <c r="F12" s="67">
-        <f>IFERROR(IF(AND(H11&gt;1,H12&gt;1)=TRUE,H12-H11,""),"")</f>
-      </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="72">
-        <f>IF(IFERROR(AND(G12&gt;1,(((E12+F12)-D12)/D12)&lt;0),FALSE),(((E12+F12)-D12)/D12)*-60,"")</f>
-      </c>
-      <c r="M12" s="73">
-        <f>IFERROR(IF(E12&gt;1,((E12+F12)/D12),""),"")</f>
-      </c>
-      <c r="N12" s="40">
-        <f>IFERROR(IF(G12&gt;1,(G12/(D12*7)),""),"")</f>
-      </c>
-      <c r="O12" s="40">
-        <f>IFERROR(IF(AND(G12&gt;1,H12&gt;1),(H12/(H12+G12)),""),"")</f>
-      </c>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="33"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="36"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="33"/>
+      <c r="Y12" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="51"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67">
-        <f>IFERROR(IF(AND(G12&gt;1,G13&gt;1)=TRUE,G13-G12,""),"")</f>
-      </c>
-      <c r="F13" s="67">
-        <f>IFERROR(IF(AND(H12&gt;1,H13&gt;1)=TRUE,H13-H12,""),"")</f>
-      </c>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="72">
-        <f>IF(IFERROR(AND(G13&gt;1,(((E13+F13)-D13)/D13)&lt;0),FALSE),(((E13+F13)-D13)/D13)*-60,"")</f>
-      </c>
-      <c r="M13" s="73">
-        <f>IFERROR(IF(E13&gt;1,((E13+F13)/D13),""),"")</f>
-      </c>
-      <c r="N13" s="40">
-        <f>IFERROR(IF(G13&gt;1,(G13/(D13*8)),""),"")</f>
-      </c>
-      <c r="O13" s="40">
-        <f>IFERROR(IF(AND(G13&gt;1,H13&gt;1),(H13/(H13+G13)),""),"")</f>
-      </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="33"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="36"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="33"/>
+      <c r="Y13" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="51"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67">
-        <f>IFERROR(IF(AND(G13&gt;1,G14&gt;1)=TRUE,G14-G13,""),"")</f>
-      </c>
-      <c r="F14" s="67">
-        <f>IFERROR(IF(AND(H13&gt;1,H14&gt;1)=TRUE,H14-H13,""),"")</f>
-      </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="72">
-        <f>IF(IFERROR(AND(G14&gt;1,(((E14+F14)-D14)/D14)&lt;0),FALSE),(((E14+F14)-D14)/D14)*-60,"")</f>
-      </c>
-      <c r="M14" s="73">
-        <f>IFERROR(IF(E14&gt;1,((E14+F14)/D14),""),"")</f>
-      </c>
-      <c r="N14" s="40">
-        <f>IFERROR(IF(G14&gt;1,(G14/(D14*9)),""),"")</f>
-      </c>
-      <c r="O14" s="40">
-        <f>IFERROR(IF(AND(G14&gt;1,H14&gt;1),(H14/(H14+G14)),""),"")</f>
-      </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="33"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="36"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="33"/>
+      <c r="Y14" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="51"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67">
-        <f>IFERROR(IF(AND(G14&gt;1,G15&gt;1)=TRUE,G15-G14,""),"")</f>
-      </c>
-      <c r="F15" s="67">
-        <f>IFERROR(IF(AND(H14&gt;1,H15&gt;1)=TRUE,H15-H14,""),"")</f>
-      </c>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72">
-        <f>IF(IFERROR(AND(G15&gt;1,(((E15+F15)-D15)/D15)&lt;0),FALSE),(((E15+F15)-D15)/D15)*-60,"")</f>
-      </c>
-      <c r="M15" s="73">
-        <f>IFERROR(IF(E15&gt;1,((E15+F15)/D15),""),"")</f>
-      </c>
-      <c r="N15" s="40">
-        <f>IFERROR(IF(G15&gt;1,(G15/(D15*10)),""),"")</f>
-      </c>
-      <c r="O15" s="40">
-        <f>IFERROR(IF(AND(G15&gt;1,H15&gt;1),(H15/(H15+G15)),""),"")</f>
-      </c>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="33"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="81"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="36"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="33"/>
+      <c r="Y15" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="51"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67">
-        <f>IFERROR(IF(AND(G15&gt;1,G16&gt;1)=TRUE,G16-G15,""),"")</f>
-      </c>
-      <c r="F16" s="67">
-        <f>IFERROR(IF(AND(H15&gt;1,H16&gt;1)=TRUE,H16-H15,""),"")</f>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="72">
-        <f>IF(IFERROR(AND(G16&gt;1,(((E16+F16)-D16)/D16)&lt;0),FALSE),(((E16+F16)-D16)/D16)*-60,"")</f>
-      </c>
-      <c r="M16" s="73">
-        <f>IFERROR(IF(E16&gt;1,((E16+F16)/D16),""),"")</f>
-      </c>
-      <c r="N16" s="40">
-        <f>IFERROR(IF(G16&gt;1,(G16/(D16*11)),""),"")</f>
-      </c>
-      <c r="O16" s="40">
-        <f>IFERROR(IF(AND(G16&gt;1,H16&gt;1),(H16/(H16+G16)),""),"")</f>
-      </c>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="75">
+      <c r="A16" s="54"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="82">
         <f>IF(E16&gt;1,(E16/#REF!),"")</f>
       </c>
-      <c r="S16" s="74">
+      <c r="S16" s="81">
         <f>IF(I16&gt;1,(I16/(#REF!*7)),"")</f>
       </c>
-      <c r="T16" s="64"/>
-      <c r="U16" s="33"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="36"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="33"/>
+      <c r="Y16" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81">
-        <f>IFERROR(IF(AND(G16&gt;1,G17&gt;1)=TRUE,G17-G16,""),"")</f>
-      </c>
-      <c r="F17" s="81">
-        <f>IFERROR(IF(AND(H16&gt;1,H17&gt;1)=TRUE,H17-H16,""),"")</f>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="81">
-        <f>IF(IFERROR(AND(G17&gt;1,(((E17+F17)-D17)/D17)&lt;0),FALSE),(((E17+F17)-D17)/D17)*-60,"")</f>
-      </c>
-      <c r="M17" s="85">
-        <f>IFERROR(IF(E17&gt;1,((E17+F17)/D17),""),"")</f>
-      </c>
-      <c r="N17" s="86">
-        <f>IFERROR(IF(G17&gt;1,(G17/(D17*12)),""),"")</f>
-      </c>
-      <c r="O17" s="86">
-        <f>IFERROR(IF(AND(G17&gt;1,H17&gt;1),(H17/(H17+G17)),""),"")</f>
-      </c>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="88">
+      <c r="A17" s="85"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="97">
         <f>IF(E17&gt;1,(E17/#REF!),"")</f>
       </c>
-      <c r="S17" s="87">
+      <c r="S17" s="96">
         <f>IF(I17&gt;1,(I17/(#REF!*8)),"")</f>
       </c>
-      <c r="T17" s="64"/>
-      <c r="U17" s="33"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="36"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
-      <c r="Y17" s="33"/>
+      <c r="Y17" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="31"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -3838,150 +3957,156 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="1"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="31"/>
+      <c r="O18" s="33"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="33"/>
+      <c r="U18" s="36"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
-      <c r="Y18" s="33"/>
+      <c r="Y18" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="31"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="1"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="89"/>
+      <c r="O19" s="98"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="35"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="33"/>
+      <c r="U19" s="36"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
-      <c r="Y19" s="33"/>
+      <c r="Y19" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="31"/>
-      <c r="B20" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="93"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="94">
-        <f>IF(AND(I16&gt;1,H16&gt;1),(H16/(H16+I16)),"")</f>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="102" t="s">
+        <v>44</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="89"/>
+      <c r="O20" s="98"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="38"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="41"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="33"/>
+      <c r="U20" s="36"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
-      <c r="Y20" s="33"/>
+      <c r="Y20" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="95"/>
-      <c r="B21" s="96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="97" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="98" t="s">
-        <v>35</v>
+      <c r="A21" s="103"/>
+      <c r="B21" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="106" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="39"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="42"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="89"/>
+      <c r="O21" s="98"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="41"/>
+      <c r="Q21" s="44"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="33"/>
+      <c r="U21" s="36"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="33"/>
+      <c r="Y21" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="95"/>
-      <c r="B22" s="99">
-        <f>IF(G17&gt;1,G17,"")</f>
-      </c>
-      <c r="C22" s="100">
-        <f>IF(H17&gt;1,H17,"")</f>
-      </c>
-      <c r="D22" s="87">
-        <f>IF(Q17&gt;0,Q17,"")</f>
+      <c r="A22" s="103"/>
+      <c r="B22" s="107" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="109" t="s">
+        <v>44</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="39"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="42"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="89"/>
+      <c r="O22" s="98"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="41"/>
+      <c r="Q22" s="44"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="33"/>
+      <c r="U22" s="36"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
-      <c r="Y22" s="33"/>
+      <c r="Y22" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="95"/>
+      <c r="A23" s="103"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3989,26 +4114,26 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="39"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="42"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="89"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="41"/>
+      <c r="Q23" s="44"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="33"/>
+      <c r="U23" s="36"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
-      <c r="Y23" s="33"/>
+      <c r="Y23" s="36"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="95"/>
+      <c r="A24" s="103"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4016,23 +4141,23 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="39"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="42"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="89"/>
+      <c r="O24" s="98"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="41"/>
+      <c r="Q24" s="44"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="33"/>
+      <c r="U24" s="36"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
-      <c r="Y24" s="33"/>
+      <c r="Y24" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4054,17 +4179,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="55.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="31" width="55.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="31" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="31" width="15.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -4075,7 +4200,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4083,18 +4208,18 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1"/>
@@ -4102,16 +4227,16 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="1"/>
@@ -4119,151 +4244,151 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="60">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -4274,7 +4399,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="29"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -4308,17 +4433,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="30" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="30" width="19.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="11.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="55.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="30" width="40.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="30" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="31" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="31" width="22.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="31" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="31" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="31" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="32" width="11.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="31" width="55.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="31" width="40.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="31" width="15.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -4329,7 +4454,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -4337,18 +4462,18 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="1"/>
@@ -4356,16 +4481,16 @@
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="1"/>
@@ -4373,203 +4498,203 @@
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="21"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="21"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="21"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="60">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="28"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -4580,7 +4705,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="29"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Template" sheetId="5" r:id="rId1"/>
@@ -1012,7 +1012,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1343,6 +1343,8 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1361,38 +1363,39 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -2219,8 +2222,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,7 +2315,7 @@
       <c r="L3" s="93"/>
       <c r="M3" s="93"/>
       <c r="N3" s="93"/>
-      <c r="O3" s="97"/>
+      <c r="O3" s="144"/>
       <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2496,9 +2499,9 @@
       </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R4" t="s">
@@ -2711,7 +2714,7 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="105" t="str">
-        <f t="shared" ref="E8:E13" si="4">IFERROR(IF(K8=1,IF(NOT(G8=""),G8,""),IF(K8=0,IF(NOT(G8=""),G8-G7,""),"")),"")</f>
+        <f t="shared" ref="E8:E12" si="4">IFERROR(IF(K8=1,IF(NOT(G8=""),G8,""),IF(K8=0,IF(NOT(G8=""),G8-G7,""),"")),"")</f>
         <v/>
       </c>
       <c r="F8" s="105" t="str">
@@ -3073,11 +3076,11 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="128"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="31"/>
       <c r="F16" s="30"/>
       <c r="P16" s="29"/>
@@ -3210,7 +3213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -3263,7 +3266,7 @@
       <c r="H3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="126"/>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
@@ -3278,15 +3281,15 @@
       </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="143"/>
+      <c r="I4" s="127"/>
       <c r="R4" t="s">
         <v>93</v>
       </c>
@@ -4095,11 +4098,11 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="127" t="s">
+      <c r="B20" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="128"/>
-      <c r="D20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30"/>
       <c r="P20" s="29"/>
@@ -4259,14 +4262,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="C2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4275,12 +4278,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4307,10 +4310,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="139"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4322,8 +4325,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4333,8 +4336,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4344,8 +4347,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4355,8 +4358,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4366,8 +4369,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4377,8 +4380,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4388,8 +4391,8 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4399,16 +4402,16 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
       <c r="F13" s="9"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
@@ -4422,17 +4425,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -4467,14 +4470,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
+      <c r="C2" s="134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4483,12 +4486,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="135"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4515,10 +4518,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="139"/>
+      <c r="J4" s="140"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4530,8 +4533,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="131"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4541,8 +4544,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="133"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4552,8 +4555,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4563,8 +4566,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4574,8 +4577,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4585,8 +4588,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4596,8 +4599,8 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4607,8 +4610,8 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4618,8 +4621,8 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4629,8 +4632,8 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4640,8 +4643,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="131"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="133"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4651,16 +4654,16 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="133"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="3:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -4674,12 +4677,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I15:J15"/>
@@ -4689,6 +4686,12 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data-Template" sheetId="5" r:id="rId1"/>
@@ -1345,6 +1345,9 @@
     </xf>
     <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1363,6 +1366,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,17 +1390,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2222,8 +2222,8 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2315,7 @@
       <c r="L3" s="93"/>
       <c r="M3" s="93"/>
       <c r="N3" s="93"/>
-      <c r="O3" s="144"/>
+      <c r="O3" s="128"/>
       <c r="P3" s="97"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2436,7 +2436,7 @@
   <dimension ref="A2:AC20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="E6" sqref="E6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2499,9 +2499,9 @@
       </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R4" t="s">
@@ -2596,11 +2596,11 @@
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="120" t="str">
-        <f>IFERROR(IF(NOT(G6=""),G6,""),"")</f>
+        <f>IFERROR(IF(NOT(I6=""),I6,IF(NOT(G6=""),G6,"")),"")</f>
         <v/>
       </c>
       <c r="F6" s="120" t="str">
-        <f>IFERROR(IF(NOT(H6=""),H6,""),"")</f>
+        <f>IFERROR(IF(NOT(J6=""),J6,IF(NOT(H6=""),H6,"")),"")</f>
         <v/>
       </c>
       <c r="G6" s="120"/>
@@ -2655,11 +2655,11 @@
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="105" t="str">
-        <f>IFERROR(IF(K7=1,IF(NOT(G7=""),G7,""),IF(K7=0,IF(NOT(G7=""),G7-G6,""),"")),"")</f>
+        <f>IFERROR(IF(K7=1,IF(NOT(I7=""),I7,IF(NOT(G7=""),G7,"")),IF(K7=0,IF(NOT(I7=""),I7-G6,IF(NOT(G7=""),G7-G6,"")))),"")</f>
         <v/>
       </c>
       <c r="F7" s="105" t="str">
-        <f>IFERROR(IF(K7=1,IF(NOT(H7=""),H7,""),IF(K7=0,IF(NOT(H7=""),H7-H6,""),"")),"")</f>
+        <f>IFERROR(IF(K7=1,IF(NOT(J7=""),J7,IF(NOT(H7=""),H7,"")),IF(K7=0,IF(NOT(J7=""),J7-H6,IF(NOT(H7=""),H7-H6,"")))),"")</f>
         <v/>
       </c>
       <c r="G7" s="105"/>
@@ -2714,11 +2714,11 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="105" t="str">
-        <f t="shared" ref="E8:E12" si="4">IFERROR(IF(K8=1,IF(NOT(G8=""),G8,""),IF(K8=0,IF(NOT(G8=""),G8-G7,""),"")),"")</f>
+        <f t="shared" ref="E8:E13" si="4">IFERROR(IF(K8=1,IF(NOT(I8=""),I8,IF(NOT(G8=""),G8,"")),IF(K8=0,IF(NOT(I8=""),I8-G7,IF(NOT(G8=""),G8-G7,"")))),"")</f>
         <v/>
       </c>
       <c r="F8" s="105" t="str">
-        <f t="shared" ref="F8:F13" si="5">IFERROR(IF(K8=1,IF(NOT(H8=""),H8,""),IF(K8=0,IF(NOT(H8=""),H8-H7,""),"")),"")</f>
+        <f t="shared" ref="F8:F13" si="5">IFERROR(IF(K8=1,IF(NOT(J8=""),J8,IF(NOT(H8=""),H8,"")),IF(K8=0,IF(NOT(J8=""),J8-H7,IF(NOT(H8=""),H8-H7,"")))),"")</f>
         <v/>
       </c>
       <c r="G8" s="105"/>
@@ -2891,7 +2891,7 @@
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="105" t="str">
-        <f>IFERROR(IF(K11=1,IF(NOT(G11=""),G11,""),IF(K11=0,IF(NOT(G11=""),G11-G10,""),"")),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F11" s="105" t="str">
@@ -3009,7 +3009,7 @@
       <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="123" t="str">
-        <f>IFERROR(IF(K13=1,IF(NOT(G13=""),G13,""),IF(K13=0,IF(NOT(G13=""),G13-G12,""),"")),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F13" s="123" t="str">
@@ -3076,11 +3076,11 @@
       <c r="S15" s="21"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="132"/>
       <c r="E16" s="31"/>
       <c r="F16" s="30"/>
       <c r="P16" s="29"/>
@@ -3213,8 +3213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3281,9 +3281,9 @@
       </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
+      <c r="Z3" s="129"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
     </row>
     <row r="4" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H4" t="s">
@@ -3382,11 +3382,11 @@
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="120" t="str">
-        <f>IFERROR(IF(NOT(G6=""),G6,""),"")</f>
+        <f>IFERROR(IF(NOT(I6=""),I6,IF(NOT(G6=""),G6,"")),"")</f>
         <v/>
       </c>
       <c r="F6" s="120" t="str">
-        <f>IFERROR(IF(NOT(H6=""),H6,""),"")</f>
+        <f>IFERROR(IF(NOT(J6=""),J6,IF(NOT(H6=""),H6,"")),"")</f>
         <v/>
       </c>
       <c r="G6" s="120"/>
@@ -3442,12 +3442,12 @@
       <c r="B7" s="55"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
-      <c r="E7" s="104" t="str">
-        <f>IFERROR(IF(K7=1,IF(NOT(G7=""),G7,""),IF(K7=0,IF(NOT(G7=""),G7-G6,""),"")),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="104" t="str">
-        <f>IFERROR(IF(K7=1,IF(NOT(H7=""),H7,""),IF(K7=0,IF(NOT(H7=""),H7-H6,""),"")),"")</f>
+      <c r="E7" s="105" t="str">
+        <f>IFERROR(IF(K7=1,IF(NOT(I7=""),I7,IF(NOT(G7=""),G7,"")),IF(K7=0,IF(NOT(I7=""),I7-G6,IF(NOT(G7=""),G7-G6,"")))),"")</f>
+        <v/>
+      </c>
+      <c r="F7" s="105" t="str">
+        <f>IFERROR(IF(K7=1,IF(NOT(J7=""),J7,IF(NOT(H7=""),H7,"")),IF(K7=0,IF(NOT(J7=""),J7-H6,IF(NOT(H7=""),H7-H6,"")))),"")</f>
         <v/>
       </c>
       <c r="G7" s="104"/>
@@ -3504,11 +3504,11 @@
       <c r="C8" s="52"/>
       <c r="D8" s="52"/>
       <c r="E8" s="104" t="str">
-        <f t="shared" ref="E8:E17" si="4">IFERROR(IF(K8=1,IF(NOT(G8=""),G8,""),IF(K8=0,IF(NOT(G8=""),G8-G7,""),"")),"")</f>
+        <f t="shared" ref="E8:E17" si="4">IFERROR(IF(K8=1,IF(NOT(I8=""),I8,IF(NOT(G8=""),G8,"")),IF(K8=0,IF(NOT(I8=""),I8-G7,IF(NOT(G8=""),G8-G7,"")))),"")</f>
         <v/>
       </c>
       <c r="F8" s="104" t="str">
-        <f t="shared" ref="F8:F17" si="5">IFERROR(IF(K8=1,IF(NOT(H8=""),H8,""),IF(K8=0,IF(NOT(H8=""),H8-H7,""),"")),"")</f>
+        <f t="shared" ref="F8:F17" si="5">IFERROR(IF(K8=1,IF(NOT(J8=""),J8,IF(NOT(H8=""),H8,"")),IF(K8=0,IF(NOT(J8=""),J8-H7,IF(NOT(H8=""),H8-H7,"")))),"")</f>
         <v/>
       </c>
       <c r="G8" s="104"/>
@@ -3687,7 +3687,7 @@
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
       <c r="E11" s="104" t="str">
-        <f>IFERROR(IF(K11=1,IF(NOT(G11=""),G11,""),IF(K11=0,IF(NOT(G11=""),G11-G10,""),"")),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F11" s="104" t="str">
@@ -3803,7 +3803,7 @@
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
       <c r="E13" s="104" t="str">
-        <f>IFERROR(IF(K13=1,IF(NOT(G13=""),G13,""),IF(K13=0,IF(NOT(G13=""),G13-G12,""),"")),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F13" s="104" t="str">
@@ -4098,11 +4098,11 @@
       <c r="S19" s="21"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B20" s="129" t="s">
+      <c r="B20" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="31"/>
       <c r="F20" s="30"/>
       <c r="P20" s="29"/>
@@ -4262,14 +4262,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4278,12 +4278,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4310,10 +4310,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="142"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4325,8 +4325,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4336,8 +4336,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4347,8 +4347,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4358,8 +4358,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4369,8 +4369,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4380,8 +4380,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4391,8 +4391,8 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4402,16 +4402,16 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="141" t="s">
+      <c r="C13" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="9"/>
       <c r="G13" s="13"/>
       <c r="H13" s="14"/>
@@ -4425,17 +4425,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:E13"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="C2:H3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
@@ -4470,14 +4470,14 @@
   <sheetData>
     <row r="1" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
+      <c r="C2" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4486,12 +4486,12 @@
       </c>
     </row>
     <row r="3" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="140"/>
       <c r="I3" s="3" t="s">
         <v>3</v>
       </c>
@@ -4518,10 +4518,10 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="141" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="140"/>
+      <c r="J4" s="142"/>
       <c r="K4" s="6" t="s">
         <v>12</v>
       </c>
@@ -4533,8 +4533,8 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="134"/>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4544,8 +4544,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4555,8 +4555,8 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4566,8 +4566,8 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
       <c r="K8" s="12"/>
     </row>
     <row r="9" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4577,8 +4577,8 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
       <c r="K9" s="12"/>
     </row>
     <row r="10" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4588,8 +4588,8 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="12"/>
     </row>
     <row r="11" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4599,8 +4599,8 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="144"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4610,8 +4610,8 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="144"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4621,8 +4621,8 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="144"/>
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4632,8 +4632,8 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="144"/>
       <c r="K14" s="12"/>
     </row>
     <row r="15" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4643,8 +4643,8 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="134"/>
       <c r="K15" s="12"/>
     </row>
     <row r="16" spans="3:11" ht="36.6" x14ac:dyDescent="0.3">
@@ -4654,16 +4654,16 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="134"/>
       <c r="K16" s="12"/>
     </row>
     <row r="17" spans="3:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
       <c r="F17" s="9"/>
       <c r="G17" s="13"/>
       <c r="H17" s="14"/>
@@ -4677,6 +4677,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C2:H3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I15:J15"/>
@@ -4686,12 +4692,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C2:H3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
